--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="〇〇クラス" sheetId="2" r:id="rId2"/>
+    <sheet name="AttendanceRepositoryクラス" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇クラス!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AttendanceRepositoryクラス!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>public interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Attendance&gt;findByUserAndYearAndMonth(User user,Integer year, Integer month);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -297,6 +301,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -305,15 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,7 +378,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1050"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1051"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -761,285 +765,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1047,6 +1021,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,7 +1063,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1080,6 +1084,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32205" yWindow="435" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView minimized="1" xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">AttendanceRepositoryクラス!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -119,14 +119,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>public interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; {</t>
+    <t xml:space="preserve"> public interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>List&lt;Attendance&gt;findByUserAndYearAndMonth(User user,Integer year, Integer month);</t>
+    <t>AttendanceRepository</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -187,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -273,13 +270,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +378,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,15 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,6 +407,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,10 +473,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>211455</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -378,7 +491,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1051"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1056"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -393,7 +506,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="676275"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -719,16 +832,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -745,7 +858,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -756,264 +869,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1021,36 +1164,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,41 +1173,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -119,11 +119,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> public interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; </t>
+    <t>AttendanceRepository</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AttendanceRepository</t>
+    <t xml:space="preserve"> interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,6 +378,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -387,15 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,24 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,15 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +491,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1056"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -848,7 +848,7 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -859,11 +859,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -878,285 +878,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1164,6 +1134,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1194,52 +1194,52 @@
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="32208" yWindow="432" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="32205" yWindow="435" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">AttendanceRepositoryクラス!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -126,6 +126,10 @@
     <t>AttendanceRepository</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> findByUserAndYearAndMonth(User user ,Integer year,Integer month):List&lt;Attendance&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -378,6 +382,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -387,15 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,24 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,15 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +477,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>929640</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -491,7 +495,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1056"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -506,7 +510,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -832,23 +836,23 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -858,305 +862,275 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1164,6 +1138,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,71 +1179,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(AttendanceRepositoryクラス) .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; </t>
+    <t xml:space="preserve"> +  interface AttendanceRepository extends JpaRepository&lt;Attendance, Integer&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,6 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,15 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,7 +491,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -878,255 +878,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1134,36 +1164,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
